--- a/biology/Zoologie/Hormonotus_modestus/Hormonotus_modestus.xlsx
+++ b/biology/Zoologie/Hormonotus_modestus/Hormonotus_modestus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hormonotus modestus, unique représentant du genre Hormonotus, est une espèce de serpents de la famille des Lamprophiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hormonotus modestus, unique représentant du genre Hormonotus, est une espèce de serpents de la famille des Lamprophiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Guinée ;
 en Côte d'Ivoire ;
 au Ghana ;
@@ -555,7 +569,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Duméril, Bibron &amp; Duméril, 1854 : Erpétologie générale ou histoire naturelle complète des reptiles. Tome septième. Première partie, p. 1-780 (texte intégral).
 Hallowell, 1857 : Notes of a collection of reptiles from the Gaboon country, West Africa, recently presented to the Academy of Natural Sciences of Philadelphia, by Dr. Herny A. Ford. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 9, p. 48-72 (texte intégral).</t>
